--- a/DBtables.xlsx
+++ b/DBtables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chamc\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\web\MGM\MGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F958C8-4E9C-41F8-8A2E-AC6DC74A5326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C3077-D860-4D00-B1F4-A76B53742E8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{D2238489-B4E8-4A9F-B474-80A6D211654A}"/>
   </bookViews>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 테이블(AnnounceBoard)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저 정보 테이블(usermember)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +540,10 @@
   </si>
   <si>
     <t>phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 테이블(announceboard)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,6 +796,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,12 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833B7419-B1A0-4834-BFAC-E4883C2471C2}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1175,14 +1175,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
@@ -1208,14 +1208,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1386,19 +1386,19 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -1527,14 +1527,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
@@ -1564,14 +1564,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="7" t="s">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -1714,14 +1714,14 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A34" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="A34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.6">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -1777,14 +1777,14 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A38" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
+      <c r="A38" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.6">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G40" s="3"/>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>95</v>
@@ -1903,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
@@ -1923,18 +1923,18 @@
         <v>86</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A47" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
+      <c r="A47" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.6">
@@ -2008,14 +2008,14 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A52" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
+      <c r="A52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A53" s="7" t="s">
@@ -2034,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.6">
@@ -2050,12 +2050,12 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>6</v>
@@ -2066,20 +2066,20 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A56" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
+      <c r="A56" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.6">
@@ -2099,12 +2099,12 @@
         <v>43</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>27</v>
@@ -2113,7 +2113,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.6">
@@ -2132,18 +2132,18 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A68" s="7" t="s">
@@ -2214,14 +2214,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A73" s="7" t="s">
@@ -2395,11 +2395,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A67:F67"/>
@@ -2407,6 +2402,11 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DBtables.xlsx
+++ b/DBtables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\web\MGM\MGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C3077-D860-4D00-B1F4-A76B53742E8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8617B-9FF2-49CC-BE2D-51B5A40E7FF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{D2238489-B4E8-4A9F-B474-80A6D211654A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,34 @@
   </si>
   <si>
     <t>공지사항 테이블(announceboard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 게시글 추천 테이블(freeboardcomment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeborad_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 대상 게시글 고유 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천한 유저 고유 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,6 +830,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,18 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833B7419-B1A0-4834-BFAC-E4883C2471C2}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1175,14 +1203,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
@@ -1208,14 +1236,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
@@ -1391,14 +1419,14 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
@@ -1527,14 +1555,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
@@ -1564,14 +1592,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="7" t="s">
@@ -1644,21 +1672,23 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
@@ -1714,14 +1744,14 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.6">
@@ -1777,14 +1807,14 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.6">
@@ -1889,7 +1919,9 @@
       <c r="F44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
@@ -1922,20 +1954,21 @@
       <c r="E46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="19" t="s">
         <v>114</v>
       </c>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A47" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A48" s="7" t="s">
@@ -1954,133 +1987,130 @@
         <v>43</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="3"/>
+      <c r="F49" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A51" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A51" s="3" t="s">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="13" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A52" s="20" t="s">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A56" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A53" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A56" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" t="s">
-        <v>123</v>
-      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57" s="7" t="s">
@@ -2099,156 +2129,159 @@
         <v>43</v>
       </c>
       <c r="F57" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A60" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A58" s="3" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A59" s="3" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A66" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A67" s="20" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A71" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A68" s="7" t="s">
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="D72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F72" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A69" s="3" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="13" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="13" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A72" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
@@ -2256,157 +2289,220 @@
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A75" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="15" t="s">
-        <v>76</v>
+      <c r="A75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="A76" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="13" t="s">
-        <v>20</v>
+      <c r="A77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="13" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A79" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="13" t="s">
-        <v>22</v>
+      <c r="A79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="13" t="s">
-        <v>23</v>
+      <c r="A80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="13" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A76:F76"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A52:F52"/>
     <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
